--- a/data/formatted/basicdata201314.xlsx
+++ b/data/formatted/basicdata201314.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C93445-CF76-46C0-8FB3-162FEC979E3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC822A-5529-4346-AC7D-397633E36D29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{813264F4-468E-4F83-AB1C-EE96FE633037}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{813264F4-468E-4F83-AB1C-EE96FE633037}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201314.xlsx
+++ b/data/formatted/basicdata201314.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC822A-5529-4346-AC7D-397633E36D29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB9046-9174-4652-B960-30F4EC523D59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{813264F4-468E-4F83-AB1C-EE96FE633037}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{813264F4-468E-4F83-AB1C-EE96FE633037}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201314.xlsx
+++ b/data/formatted/basicdata201314.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB9046-9174-4652-B960-30F4EC523D59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75654EEB-FCA4-4C38-BC0E-2347B4588A7C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{813264F4-468E-4F83-AB1C-EE96FE633037}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{813264F4-468E-4F83-AB1C-EE96FE633037}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,208 +114,208 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Albany (NY) NCAA</t>
-  </si>
-  <si>
-    <t>American NCAA</t>
-  </si>
-  <si>
-    <t>Arizona State NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Baylor NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Cal Poly NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Coastal Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Colorado NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Creighton NCAA</t>
-  </si>
-  <si>
-    <t>Dayton NCAA</t>
-  </si>
-  <si>
-    <t>Delaware NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Eastern Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>George Washington NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Harvard NCAA</t>
-  </si>
-  <si>
-    <t>Iowa State NCAA</t>
-  </si>
-  <si>
-    <t>Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Kansas State NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Louisiana NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Manhattan NCAA</t>
-  </si>
-  <si>
-    <t>Massachusetts NCAA</t>
-  </si>
-  <si>
-    <t>Memphis NCAA</t>
-  </si>
-  <si>
-    <t>Mercer NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Michigan NCAA</t>
-  </si>
-  <si>
-    <t>Milwaukee NCAA</t>
-  </si>
-  <si>
-    <t>Mount St. Mary's NCAA</t>
-  </si>
-  <si>
-    <t>Nebraska NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico State NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina Central NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>North Dakota State NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Oregon NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Providence NCAA</t>
-  </si>
-  <si>
-    <t>Saint Joseph's NCAA</t>
-  </si>
-  <si>
-    <t>Saint Louis NCAA</t>
-  </si>
-  <si>
-    <t>San Diego State NCAA</t>
-  </si>
-  <si>
-    <t>Stanford NCAA</t>
-  </si>
-  <si>
-    <t>Stephen F. Austin NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Texas Southern NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>Tulsa NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Commonwealth NCAA</t>
-  </si>
-  <si>
-    <t>Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Weber State NCAA</t>
-  </si>
-  <si>
-    <t>Western Michigan NCAA</t>
-  </si>
-  <si>
-    <t>Wichita State NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Wofford NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Albany (NY)</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Cal Poly</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Coastal Carolina</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Mercer</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Mount St. Mary's</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>North Carolina Central</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota State</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>Saint Louis</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Weber State</t>
+  </si>
+  <si>
+    <t>Western Michigan</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
